--- a/biology/Botanique/Adonis_flammea/Adonis_flammea.xlsx
+++ b/biology/Botanique/Adonis_flammea/Adonis_flammea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adonis flamme, Adonis couleur de feu
 L'Adonis flamme ou Adonis couleur de feu (Adonis flammea) est une espèce de plantes à fleurs dicotylédones de la famille des Ranunculaceae, sous-famille des Ranunculoideae, originaire de l'Ancien Monde (Europe, Afrique du Nord et Proche-Orient).
@@ -512,10 +524,12 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En Suisse, l'espèce est inscrite sur la liste rouge des plantes.
-Cette espèce est inscrite dans la liste rouge des espèces menacée en France[2] et considérée comme éteinte en Île-de-France (cf.Liste rouge régionale de la flore vasculaire d'Île-de-France).
+Cette espèce est inscrite dans la liste rouge des espèces menacée en France et considérée comme éteinte en Île-de-France (cf.Liste rouge régionale de la flore vasculaire d'Île-de-France).
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Alsace et dans le Nord-Pas-de-Calais.
 </t>
@@ -577,14 +593,53 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (24 août 2019)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (24 août 2019) :
 Adonis anomala Wallr.
 Adonis caudata Steven
 Adonis flammea var. anomala (Wallr.) Beck
-Adonis involucrata S.Pons
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (24 août 2019)[3] (Attention liste brute contenant possiblement des synonymes) :
+Adonis involucrata S.Pons</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Adonis_flammea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adonis_flammea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (24 août 2019) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Adonis flammea subsp. cortiana C. Steinb.
 Adonis flammea subsp. flammea
